--- a/doc/GameDesign.xlsx
+++ b/doc/GameDesign.xlsx
@@ -2901,153 +2901,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>123264</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>78442</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>89646</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="74" name="Group 73"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="2588558" y="15777883"/>
-          <a:ext cx="1927413" cy="537881"/>
-          <a:chOff x="2588558" y="15777883"/>
-          <a:chExt cx="1927413" cy="537881"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="25" name="Rounded Rectangle 24"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2588560" y="15968383"/>
-            <a:ext cx="1927411" cy="179294"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="26" name="Rounded Rectangle 25"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2588558" y="15957176"/>
-            <a:ext cx="1355911" cy="190499"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="3">
-            <a:schemeClr val="accent3"/>
-          </a:fillRef>
-          <a:effectRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="68" name="12-Point Star 67"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2633382" y="15777883"/>
-            <a:ext cx="504265" cy="537881"/>
-          </a:xfrm>
-          <a:prstGeom prst="star12">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:fillRef>
-          <a:effectRef idx="1">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="0070C0"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>1</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>201708</xdr:colOff>
       <xdr:row>45</xdr:row>
@@ -3485,8 +3338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BD67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF45" sqref="AF45"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AN41" sqref="AN41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
